--- a/backend/utility/requirements-user-stories-and-testcase.xlsx
+++ b/backend/utility/requirements-user-stories-and-testcase.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentin\revature\prj1\backend\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2825592-0570-4259-BF8A-7179CE4D38EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E34A0FB-9686-4650-8883-4B5BFAB5DF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3632A8E3-D562-4844-B817-9ED2A84E2534}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3632A8E3-D562-4844-B817-9ED2A84E2534}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="2" r:id="rId1"/>
     <sheet name="test cases" sheetId="3" r:id="rId2"/>
+    <sheet name="Report" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="193">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1222,13 +1223,119 @@
   </si>
   <si>
     <t xml:space="preserve">The reimbursement status can only be changed one at a time for Pending reimbursements only </t>
+  </si>
+  <si>
+    <t>Test Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Cycle                             </t>
+  </si>
+  <si>
+    <t>System Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXECUTED </t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>(Total) TESTS EXECUTED 
+(PASSED + FAILED)</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
+  </si>
+  <si>
+    <t>BLOCKED</t>
+  </si>
+  <si>
+    <t>(Sub-Total) TEST PLANNED</t>
+  </si>
+  <si>
+    <t>(PENDING + IN PROGRESS + BLOCKED + TEST EXECUTED)</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>% TCs Executed</t>
+  </si>
+  <si>
+    <t>% TCs Passed</t>
+  </si>
+  <si>
+    <t>TCs pending</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Reimbursements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check reimbursement </t>
+  </si>
+  <si>
+    <t>New Reimbursements</t>
+  </si>
+  <si>
+    <t>Check New reimbursebment is added</t>
+  </si>
+  <si>
+    <t>Approve Reimbursement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Approve reimbursement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deny Reimbursement </t>
+  </si>
+  <si>
+    <t>Check Deny reimbursement</t>
+  </si>
+  <si>
+    <t>User preserve state</t>
+  </si>
+  <si>
+    <t>login, navigate away and back, logout navigate away and back</t>
+  </si>
+  <si>
+    <t>user Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check User Login </t>
+  </si>
+  <si>
+    <t>Filter Reimbursements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Filter reimbursements list </t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1273,8 +1380,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1293,8 +1470,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1302,11 +1503,441 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1328,6 +1959,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1340,14 +1977,148 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="40% - Accent5" xfId="1" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1662,7 +2433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEEDA7F-7149-4962-A23F-41EA1BB23CE4}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1689,10 +2460,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1703,8 +2474,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1713,10 +2484,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1727,8 +2498,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1751,10 +2522,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1765,8 +2536,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
         <v>43</v>
       </c>
@@ -1803,10 +2574,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1817,8 +2588,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
@@ -1867,8 +2638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6C093A-9099-479A-A0A4-F98C02F0C65A}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,7 +2650,7 @@
     <col min="4" max="4" width="31.140625" style="8" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="27.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="16"/>
+    <col min="7" max="7" width="9.140625" style="79"/>
     <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
@@ -1899,10 +2670,10 @@
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="80" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1925,6 +2696,9 @@
       <c r="F2" s="8" t="s">
         <v>56</v>
       </c>
+      <c r="G2" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1945,6 +2719,9 @@
       <c r="F3" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="G3" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1965,6 +2742,9 @@
       <c r="F4" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="G4" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1985,6 +2765,9 @@
       <c r="F5" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="G5" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -2005,6 +2788,9 @@
       <c r="F6" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="G6" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -2025,6 +2811,9 @@
       <c r="F7" s="8" t="s">
         <v>89</v>
       </c>
+      <c r="G7" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -2045,6 +2834,9 @@
       <c r="F8" s="8" t="s">
         <v>93</v>
       </c>
+      <c r="G8" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -2065,6 +2857,9 @@
       <c r="F9" s="8" t="s">
         <v>98</v>
       </c>
+      <c r="G9" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -2085,6 +2880,9 @@
       <c r="F10" s="8" t="s">
         <v>98</v>
       </c>
+      <c r="G10" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -2105,6 +2903,9 @@
       <c r="F11" s="8" t="s">
         <v>98</v>
       </c>
+      <c r="G11" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -2125,6 +2926,9 @@
       <c r="F12" s="8" t="s">
         <v>98</v>
       </c>
+      <c r="G12" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -2145,6 +2949,9 @@
       <c r="F13" s="8" t="s">
         <v>112</v>
       </c>
+      <c r="G13" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -2165,6 +2972,9 @@
       <c r="F14" s="8" t="s">
         <v>151</v>
       </c>
+      <c r="G14" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -2185,6 +2995,9 @@
       <c r="F15" s="8" t="s">
         <v>117</v>
       </c>
+      <c r="G15" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -2205,8 +3018,11 @@
       <c r="F16" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G16" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>79</v>
       </c>
@@ -2225,8 +3041,11 @@
       <c r="F17" s="8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G17" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>80</v>
       </c>
@@ -2245,8 +3064,11 @@
       <c r="F18" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G18" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>81</v>
       </c>
@@ -2265,8 +3087,11 @@
       <c r="F19" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G19" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>136</v>
       </c>
@@ -2285,8 +3110,11 @@
       <c r="F20" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G20" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>137</v>
       </c>
@@ -2305,8 +3133,11 @@
       <c r="F21" s="8" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G21" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>153</v>
       </c>
@@ -2325,8 +3156,11 @@
       <c r="F22" s="8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="G22" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>154</v>
       </c>
@@ -2344,6 +3178,9 @@
       </c>
       <c r="F23" s="8" t="s">
         <v>157</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2351,4 +3188,567 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C1F6F6-1207-4265-AD89-864E279037B8}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
+    </row>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="33">
+        <v>22</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="37"/>
+      <c r="C5" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="32">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="31"/>
+      <c r="C6" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="17">
+        <v>22</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="31"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="34">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="34">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="30">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="30">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="17">
+        <v>22</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="74"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="57">
+        <v>1</v>
+      </c>
+      <c r="E17" s="57">
+        <v>1</v>
+      </c>
+      <c r="F17" s="59">
+        <v>0</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="64"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="76"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="65"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="57">
+        <v>1</v>
+      </c>
+      <c r="E19" s="57">
+        <v>1</v>
+      </c>
+      <c r="F19" s="59">
+        <v>0</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="64"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="76"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="65"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="57">
+        <v>1</v>
+      </c>
+      <c r="E21" s="57">
+        <v>1</v>
+      </c>
+      <c r="F21" s="59">
+        <v>0</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="64"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="76"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="65"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="57">
+        <v>1</v>
+      </c>
+      <c r="E23" s="57">
+        <v>1</v>
+      </c>
+      <c r="F23" s="59">
+        <v>0</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="64"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="76"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="65"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="57">
+        <v>1</v>
+      </c>
+      <c r="E25" s="57">
+        <v>1</v>
+      </c>
+      <c r="F25" s="59">
+        <v>0</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="64"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="76"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="65"/>
+    </row>
+    <row r="27" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="57">
+        <v>1</v>
+      </c>
+      <c r="E27" s="57">
+        <v>1</v>
+      </c>
+      <c r="F27" s="59">
+        <v>0</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" s="64"/>
+    </row>
+    <row r="28" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="76"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="65"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="57">
+        <v>1</v>
+      </c>
+      <c r="E29" s="57">
+        <v>1</v>
+      </c>
+      <c r="F29" s="59">
+        <v>0</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" s="64"/>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="78"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="66">
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B12:E13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>